--- a/me_docs/1.Getting-Started-with-JSP.xlsx
+++ b/me_docs/1.Getting-Started-with-JSP.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455111FD-437B-4FE5-9362-577A077E0C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0068BE-EE6D-4BB0-92AC-76B8DDC97073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="download java" sheetId="1" r:id="rId1"/>
     <sheet name="jdk install" sheetId="2" r:id="rId2"/>
     <sheet name="jre install" sheetId="3" r:id="rId3"/>
+    <sheet name="Installing Tomcat" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>URL: https://www.oracle.com/java/technologies/javase/javase9-archive-downloads.html</t>
   </si>
@@ -40,12 +41,69 @@
   <si>
     <t>Có thể không login thành công nhưng quay lại trang download thì vẫn download được</t>
   </si>
+  <si>
+    <t>Download URL: https://tomcat.apache.org/</t>
+  </si>
+  <si>
+    <t>Install</t>
+  </si>
+  <si>
+    <t>Verify the Installation</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8080/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Xem config Tomcat </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>started</t>
+    </r>
+  </si>
+  <si>
+    <t>services control panel</t>
+  </si>
+  <si>
+    <t>services.msc -&gt; service(local) -&gt; Apache Tomcat 9.0 Tomcat9 -&gt; Start or Stop</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it and we will start it via Eclipse later </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +114,22 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -721,6 +795,671 @@
         <a:xfrm>
           <a:off x="609600" y="10287000"/>
           <a:ext cx="5123809" cy="1723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>93638</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9020F2-C558-4374-9676-7F9ED65BD50E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="12895238" cy="5114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>503467</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>18571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E1A06BB-3EF2-48E2-A19C-ACEA3F58596B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5715000"/>
+          <a:ext cx="10866667" cy="3828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>579962</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>190405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6188C2F-4371-4FF8-BAE0-6C090CF679B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10096500"/>
+          <a:ext cx="8504762" cy="761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>494705</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>56690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6259EF8C-01DA-40BC-9CC5-D7F8C579D09C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11049000"/>
+          <a:ext cx="4761905" cy="3676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466133</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>66214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7490F633-32E7-40DD-877A-94F2604E2C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14859000"/>
+          <a:ext cx="4733333" cy="3685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466133</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>75738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F3F27A-967C-4E6F-B033-10761810C224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18669000"/>
+          <a:ext cx="4733333" cy="3695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504229</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>66214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6226B7A-B56F-4B68-B2CA-8801696B6B60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22479000"/>
+          <a:ext cx="4771429" cy="3685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447086</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>56690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55006598-D40F-4BC6-BF4C-DD6B74F9D2EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="26479500"/>
+          <a:ext cx="4714286" cy="3676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447086</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>47167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD973C1C-B8D7-4738-A52D-73C97B66B19B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="30480000"/>
+          <a:ext cx="4714286" cy="3666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466133</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>47167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22BD1F27-0CE2-46A9-86A8-EFFB3F4ED7DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="34480500"/>
+          <a:ext cx="4733333" cy="3666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>474819</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>123262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B92612FE-340B-4033-BE67-7EFB6531CC9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="38862000"/>
+          <a:ext cx="11447619" cy="4504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152002</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>56883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C36C9706-42B2-41A4-BF2D-80F82871032E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="43834050"/>
+          <a:ext cx="3180952" cy="2133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>256686</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>170857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD4A4B1-EA81-48A8-A6B5-690709F8F4F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="46291500"/>
+          <a:ext cx="3914286" cy="4742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>113829</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>171262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B97E780-AA65-4AB6-8AAC-6EF799820790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="51816000"/>
+          <a:ext cx="3771429" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>132190</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>142238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748C6E16-9812-42EB-80FB-0501BC224702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="53530500"/>
+          <a:ext cx="9276190" cy="5095238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -997,7 +1736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
@@ -1034,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41371942-A76C-4042-89F0-FA96298BC4AA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="Q66" sqref="Q66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B155D7F-4505-410E-ACB6-B19935B91B56}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,4 +1797,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BC24AF-AE10-4EF2-8A7E-017D29D19140}">
+  <dimension ref="A2:B272"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="M270" sqref="M270"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me_docs/1.Getting-Started-with-JSP.xlsx
+++ b/me_docs/1.Getting-Started-with-JSP.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0068BE-EE6D-4BB0-92AC-76B8DDC97073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AEE7B6-B10A-43FA-945F-8C52D39CA6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="download java" sheetId="1" r:id="rId1"/>
     <sheet name="jdk install" sheetId="2" r:id="rId2"/>
     <sheet name="jre install" sheetId="3" r:id="rId3"/>
     <sheet name="Installing Tomcat" sheetId="4" r:id="rId4"/>
+    <sheet name="Installing Eclipse" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>URL: https://www.oracle.com/java/technologies/javase/javase9-archive-downloads.html</t>
   </si>
@@ -97,6 +98,44 @@
       </rPr>
       <t xml:space="preserve"> it and we will start it via Eclipse later </t>
     </r>
+  </si>
+  <si>
+    <t>URL: https://www.eclipse.org/downloads/packages/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Download </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java EE IDE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">unzip and copy eclipse folder to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C Driver</t>
+    </r>
+  </si>
+  <si>
+    <t>Run eclipse</t>
   </si>
 </sst>
 </file>
@@ -1460,6 +1499,363 @@
         <a:xfrm>
           <a:off x="609600" y="53530500"/>
           <a:ext cx="9276190" cy="5095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>141714</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69C8E90-F403-4E7A-BCD9-31998FE61610}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="9285714" cy="4619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>446247</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7381F3-9C33-4E05-BE32-702A953AD499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5143500"/>
+          <a:ext cx="11419047" cy="4352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>246705</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>28238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C86306C-6975-43D3-9239-63EE8D28C30C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10287000"/>
+          <a:ext cx="7561905" cy="2695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>494857</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>190071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63CCF201-E17E-455A-801E-458207CF628D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12954000"/>
+          <a:ext cx="3542857" cy="3428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>551390</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>142500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D585C7F2-B949-49D4-B9FB-A53F432D1591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16764000"/>
+          <a:ext cx="8476190" cy="3000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342171</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>123500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32C4F79-E922-4180-BAC3-345BE3F305DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20002500"/>
+          <a:ext cx="5828571" cy="2600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>36876</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>142548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10355BE-96B0-4B56-B322-A0533074A6B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22860000"/>
+          <a:ext cx="9790476" cy="2619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>207924</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>103905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2809B90B-A579-4EDE-9654-E3206FB52AE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="25717500"/>
+          <a:ext cx="13009524" cy="6961905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1803,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BC24AF-AE10-4EF2-8A7E-017D29D19140}">
   <dimension ref="A2:B272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="M270" sqref="M270"/>
+    <sheetView topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,4 +2250,40 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D8C7A4-AEF3-40C9-B4C2-4B47E6114AD5}">
+  <dimension ref="A2:B88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me_docs/1.Getting-Started-with-JSP.xlsx
+++ b/me_docs/1.Getting-Started-with-JSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AEE7B6-B10A-43FA-945F-8C52D39CA6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A254FAB-F92E-411E-8199-8306F7576148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="download java" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="jre install" sheetId="3" r:id="rId3"/>
     <sheet name="Installing Tomcat" sheetId="4" r:id="rId4"/>
     <sheet name="Installing Eclipse" sheetId="5" r:id="rId5"/>
+    <sheet name="Tomcat plugin,java for eclipse" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>URL: https://www.oracle.com/java/technologies/javase/javase9-archive-downloads.html</t>
   </si>
@@ -137,6 +138,18 @@
   <si>
     <t>Run eclipse</t>
   </si>
+  <si>
+    <t>Install tomcat plugin from marketplace to eclipse để liên kết tomcat với eclipse</t>
+  </si>
+  <si>
+    <t>サーバー・ランタイム環境の追加(Chỉ định folder tomcat)</t>
+  </si>
+  <si>
+    <t>インストールしたJDKをEclipseに適用する</t>
+  </si>
+  <si>
+    <t>Create ext folder and copy paste jar file</t>
+  </si>
 </sst>
 </file>
 
@@ -1856,6 +1869,759 @@
         <a:xfrm>
           <a:off x="609600" y="25717500"/>
           <a:ext cx="13009524" cy="6961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142095</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>189952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B38BD0-8729-4AE1-8CA0-2CF7BFE6A8FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="6238095" cy="4380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>27581</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>27714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9240EBC-AF7E-409C-994F-D0A91DEC1EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5143500"/>
+          <a:ext cx="7952381" cy="6885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>18057</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>151548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1191F34F-E439-45DE-8DDE-916104838CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12192000"/>
+          <a:ext cx="7942857" cy="6819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>389943</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>142405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F3AD56-83EA-4B68-A48D-21C3E408C400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="19240500"/>
+          <a:ext cx="4657143" cy="3761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>36495</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>104309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42BE992-8761-4373-8850-1DB240C57B31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="23431500"/>
+          <a:ext cx="12838095" cy="3723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542095</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>85071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9BCE5C-3B61-4BE9-AA27-50E834798676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="27432000"/>
+          <a:ext cx="6638095" cy="5228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599467</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>161238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376143D0-98F8-44B2-80FD-9FA496E66712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="32956500"/>
+          <a:ext cx="4866667" cy="5495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>570895</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>142190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9136F5-4BA8-4A13-B40F-FBC375DFCA38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="38671500"/>
+          <a:ext cx="4838095" cy="5476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504000</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>66024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D3022C-A1D3-40E1-A6A3-DFDC885D0776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="44386500"/>
+          <a:ext cx="6600000" cy="5209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>36495</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>104309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21893983-4163-47DC-BF27-55D38F76C365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="50101500"/>
+          <a:ext cx="12838095" cy="3723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>113448</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>8857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC5DE93A-A5E8-4759-8D12-178603437BF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="53911500"/>
+          <a:ext cx="6819048" cy="5342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>608990</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>75667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAFFF540-C7F6-42C6-BF28-098897079CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="59436000"/>
+          <a:ext cx="4876190" cy="4266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>227657</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>132738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03022AF0-9DBB-412A-9FBB-0F32189FE6C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="49911000"/>
+          <a:ext cx="7542857" cy="4895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>589943</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>123214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC76A9B-33DE-460B-8261-8427EDC13CD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="69151500"/>
+          <a:ext cx="4857143" cy="4885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>390</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>141714</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>161238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2306D50-99FF-4D2A-A3EE-2C67613AA386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="74295000"/>
+          <a:ext cx="9285714" cy="5495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>589790</xdr:colOff>
+      <xdr:row>453</xdr:row>
+      <xdr:rowOff>151595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00391FAE-19BF-4258-B2AF-FF6A95E52120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="80010000"/>
+          <a:ext cx="6076190" cy="6438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>84876</xdr:colOff>
+      <xdr:row>483</xdr:row>
+      <xdr:rowOff>18381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB88DC5B-71A2-4616-B236-C675348A0F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="86677500"/>
+          <a:ext cx="6790476" cy="5352381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2199,7 +2965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BC24AF-AE10-4EF2-8A7E-017D29D19140}">
   <dimension ref="A2:B272"/>
   <sheetViews>
-    <sheetView topLeftCell="A295" workbookViewId="0">
+    <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
@@ -2256,7 +3022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D8C7A4-AEF3-40C9-B4C2-4B47E6114AD5}">
   <dimension ref="A2:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
@@ -2286,4 +3052,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB809D5E-B879-473D-8E37-44DD9B030281}">
+  <dimension ref="A2:A290"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="K492" sqref="K492"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me_docs/1.Getting-Started-with-JSP.xlsx
+++ b/me_docs/1.Getting-Started-with-JSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A254FAB-F92E-411E-8199-8306F7576148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76413363-AB31-4D71-84CB-78DB527744B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="download java" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Installing Tomcat" sheetId="4" r:id="rId4"/>
     <sheet name="Installing Eclipse" sheetId="5" r:id="rId5"/>
     <sheet name="Tomcat plugin,java for eclipse" sheetId="6" r:id="rId6"/>
+    <sheet name="Connecting Eclipse to Tomcat" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>URL: https://www.oracle.com/java/technologies/javase/javase9-archive-downloads.html</t>
   </si>
@@ -148,14 +149,39 @@
     <t>インストールしたJDKをEclipseに適用する</t>
   </si>
   <si>
-    <t>Create ext folder and copy paste jar file</t>
+    <t>Add new server</t>
+  </si>
+  <si>
+    <r>
+      <t>Create ext folder and copy paste jar file(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tomcat 9 không cần</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +212,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,9 +240,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2458,145 +2492,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>363</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>589943</xdr:colOff>
-      <xdr:row>388</xdr:row>
-      <xdr:rowOff>123214</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC76A9B-33DE-460B-8261-8427EDC13CD5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="69151500"/>
-          <a:ext cx="4857143" cy="4885714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>390</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>141714</xdr:colOff>
-      <xdr:row>418</xdr:row>
-      <xdr:rowOff>161238</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2306D50-99FF-4D2A-A3EE-2C67613AA386}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="74295000"/>
-          <a:ext cx="9285714" cy="5495238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>420</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>589790</xdr:colOff>
-      <xdr:row>453</xdr:row>
-      <xdr:rowOff>151595</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00391FAE-19BF-4258-B2AF-FF6A95E52120}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="80010000"/>
-          <a:ext cx="6076190" cy="6438095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>455</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>84876</xdr:colOff>
-      <xdr:row>483</xdr:row>
+      <xdr:row>419</xdr:row>
       <xdr:rowOff>18381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2613,7 +2515,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2622,6 +2524,187 @@
         <a:xfrm>
           <a:off x="609600" y="86677500"/>
           <a:ext cx="6790476" cy="5352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8914</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>151786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4970E203-FED6-4955-A73E-39FE4934C537}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="69151500"/>
+          <a:ext cx="4885714" cy="4914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>227352</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC052B6B-72DF-41E9-AF0B-5334A9BEB554}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="9980952" cy="5580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>227962</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>27762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBC3477-4E4C-46BD-838F-7D9B434AEFEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6286500"/>
+          <a:ext cx="5104762" cy="6504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>379962</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>113571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{046B1EE6-7A01-432F-8EBE-AD7A83F73297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12954000"/>
+          <a:ext cx="8304762" cy="5828571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3056,10 +3139,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB809D5E-B879-473D-8E37-44DD9B030281}">
-  <dimension ref="A2:A290"/>
+  <dimension ref="A2:B390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="K492" sqref="K492"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="O384" sqref="O384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3076,7 +3159,7 @@
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
@@ -3084,6 +3167,33 @@
         <v>18</v>
       </c>
     </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" s="2"/>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B390" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8E4FF5-28A0-4289-AF48-A85DEE5715D0}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T92" sqref="T92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/me_docs/1.Getting-Started-with-JSP.xlsx
+++ b/me_docs/1.Getting-Started-with-JSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\JSP-Servlets-JDBC\me_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76413363-AB31-4D71-84CB-78DB527744B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D5B596-2D12-4E7E-BA9C-9C16F250A1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="download java" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>URL: https://www.oracle.com/java/technologies/javase/javase9-archive-downloads.html</t>
   </si>
@@ -176,6 +176,9 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>admin</t>
+  </si>
 </sst>
 </file>
 
@@ -220,12 +223,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,10 +249,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3046,10 +3056,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BC24AF-AE10-4EF2-8A7E-017D29D19140}">
-  <dimension ref="A2:B272"/>
+  <dimension ref="A2:J272"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B311" sqref="B311"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="M136" sqref="M135:M136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3062,6 +3072,16 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J132" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J133" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3105,7 +3125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D8C7A4-AEF3-40C9-B4C2-4B47E6114AD5}">
   <dimension ref="A2:B88"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
@@ -3141,7 +3161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB809D5E-B879-473D-8E37-44DD9B030281}">
   <dimension ref="A2:B390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="O384" sqref="O384"/>
     </sheetView>
   </sheetViews>
@@ -3183,7 +3203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8E4FF5-28A0-4289-AF48-A85DEE5715D0}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="T92" sqref="T92"/>
     </sheetView>
   </sheetViews>
